--- a/public/downloads/DRUG-TEST-OUTCOME-2023.xlsx
+++ b/public/downloads/DRUG-TEST-OUTCOME-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimConnolly\Desktop\Web Builds\British Powerlifting federation Academy\25.04.2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/packleaders/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F35BCECE-8904-4EB2-9BC7-CCE4E5B0A772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{726FB899-47D5-DB4F-B338-E0985F3BF292}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>IZZY COTTON</t>
+  </si>
+  <si>
+    <t>europe &amp; commonwelth championships IPL/ BPF 01/07/2023</t>
+  </si>
+  <si>
+    <t>Fracesco Lo Porto</t>
+  </si>
+  <si>
+    <t>Kelly Brown</t>
+  </si>
+  <si>
+    <t>Andy Gore</t>
   </si>
 </sst>
 </file>
@@ -73,7 +85,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <b/>
       <sz val="11"/>
@@ -140,6 +152,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF007DD6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,7 +196,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -190,6 +210,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="5" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -201,7 +227,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -239,9 +279,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Tasks" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Tasks" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="2"/>
-      <tableStyleElement type="headerRow" dxfId="1"/>
-      <tableStyleElement type="firstColumn" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstColumn" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -256,12 +296,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="List" displayName="List" ref="B3:D7" totalsRowShown="0">
-  <autoFilter ref="B3:D7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="List" displayName="List" ref="B3:D10" totalsRowShown="0">
+  <autoFilter ref="B3:D10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATE AND PLACE" dataCellStyle="Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PASS OR FALL"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PERSON TESTED"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PERSON TESTED" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Tasks" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -539,32 +579,32 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:D7"/>
+  <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="34.125" customWidth="1"/>
-    <col min="3" max="3" width="45.375" customWidth="1"/>
-    <col min="4" max="4" width="67.375" customWidth="1"/>
-    <col min="5" max="5" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" customWidth="1"/>
+    <col min="4" max="4" width="67.33203125" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="24" x14ac:dyDescent="0.15">
       <c r="B2" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -575,47 +615,80 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D10" s="6" t="s">
         <v>2</v>
       </c>
     </row>

--- a/public/downloads/DRUG-TEST-OUTCOME-2023.xlsx
+++ b/public/downloads/DRUG-TEST-OUTCOME-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/packleaders/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/TESTING RESOLTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{726FB899-47D5-DB4F-B338-E0985F3BF292}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{0D29702C-50D5-004A-9C13-78CBA91C4E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D812963D-4523-4309-A336-2CE0DB5D0277}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -28,16 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>Drug testing outcomes</t>
   </si>
@@ -76,6 +67,45 @@
   </si>
   <si>
     <t>Andy Gore</t>
+  </si>
+  <si>
+    <t>JULIE ANTONOVA</t>
+  </si>
+  <si>
+    <t>CINDY GOODRICH</t>
+  </si>
+  <si>
+    <t>MARCAL PAULK</t>
+  </si>
+  <si>
+    <t>STACEY OTLIN</t>
+  </si>
+  <si>
+    <t>KALIL ZAKEY</t>
+  </si>
+  <si>
+    <t>DENNIS ALEGRE</t>
+  </si>
+  <si>
+    <t>DESMOND JORDEN</t>
+  </si>
+  <si>
+    <t>ARON WOODS</t>
+  </si>
+  <si>
+    <t>World Championships October 2023 18/10/2023 BPF/ILP/WPU</t>
+  </si>
+  <si>
+    <t>World Championships October 2023 18/10/2023 - 22/10/2023 BPF/ILP/WPU</t>
+  </si>
+  <si>
+    <t>SHEENA HODGES</t>
+  </si>
+  <si>
+    <t>SARAH MEYER</t>
+  </si>
+  <si>
+    <t>JESSE MORGAN</t>
   </si>
 </sst>
 </file>
@@ -85,7 +115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <b/>
       <sz val="11"/>
@@ -160,6 +190,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,7 +232,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -212,11 +248,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="5" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -296,8 +335,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="List" displayName="List" ref="B3:D10" totalsRowShown="0">
-  <autoFilter ref="B3:D10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="List" displayName="List" ref="B3:D20" totalsRowShown="0">
+  <autoFilter ref="B3:D20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATE AND PLACE" dataCellStyle="Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PASS OR FALL"/>
@@ -579,13 +618,13 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:D10"/>
+  <dimension ref="B1:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="34.1640625" customWidth="1"/>
@@ -594,102 +633,212 @@
     <col min="5" max="5" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" ht="24" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+    <row r="5" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="6" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+    </row>
+    <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6" t="s">
+    <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="5" t="s">
+    <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
+    </row>
+    <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6" t="s">
+    <row r="11" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="s">
+    <row r="12" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>2</v>
+    <row r="13" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
